--- a/ResultsWithCoolingEffect.xlsx
+++ b/ResultsWithCoolingEffect.xlsx
@@ -427,10 +427,10 @@
         <v>43466.33333333334</v>
       </c>
       <c r="D2">
-        <v>15.37097238085167</v>
+        <v>6.759719613864125</v>
       </c>
       <c r="E2">
-        <v>3410.1</v>
+        <v>1529.19</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -447,10 +447,10 @@
         <v>43466.375</v>
       </c>
       <c r="D3">
-        <v>16.90513635254396</v>
+        <v>7.828097028819126</v>
       </c>
       <c r="E3">
-        <v>3489.62</v>
+        <v>1570.53</v>
       </c>
       <c r="F3">
         <v>515</v>
@@ -467,10 +467,10 @@
         <v>43466.41666666666</v>
       </c>
       <c r="D4">
-        <v>18.39254390092629</v>
+        <v>8.673938388833285</v>
       </c>
       <c r="E4">
-        <v>3715.75</v>
+        <v>1680.12</v>
       </c>
       <c r="F4">
         <v>552</v>
@@ -487,10 +487,10 @@
         <v>43466.45833333334</v>
       </c>
       <c r="D5">
-        <v>16.75062138237626</v>
+        <v>8.394651783777872</v>
       </c>
       <c r="E5">
-        <v>3275.29</v>
+        <v>1466.95</v>
       </c>
       <c r="F5">
         <v>483</v>
@@ -507,10 +507,10 @@
         <v>43466.5</v>
       </c>
       <c r="D6">
-        <v>12.04322608178075</v>
+        <v>6.765466483930942</v>
       </c>
       <c r="E6">
-        <v>2040.38</v>
+        <v>894.87</v>
       </c>
       <c r="F6">
         <v>297</v>
@@ -527,10 +527,10 @@
         <v>43466.54166666666</v>
       </c>
       <c r="D7">
-        <v>3.951636127124818</v>
+        <v>4.057387215853641</v>
       </c>
       <c r="E7">
-        <v>349.92</v>
+        <v>147.81</v>
       </c>
       <c r="F7">
         <v>51</v>
@@ -887,7 +887,7 @@
         <v>43467.29166666666</v>
       </c>
       <c r="D25">
-        <v>5.367324932329772</v>
+        <v>2.81861931991214</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>43467.33333333334</v>
       </c>
       <c r="D26">
-        <v>18.58316373957082</v>
+        <v>8.267496768654235</v>
       </c>
       <c r="E26">
-        <v>3317.09</v>
+        <v>1517.7</v>
       </c>
       <c r="F26">
         <v>499</v>
@@ -927,10 +927,10 @@
         <v>43467.375</v>
       </c>
       <c r="D27">
-        <v>20.34681045042517</v>
+        <v>9.306953725260927</v>
       </c>
       <c r="E27">
-        <v>3392.91</v>
+        <v>1564.49</v>
       </c>
       <c r="F27">
         <v>516</v>
@@ -947,10 +947,10 @@
         <v>43467.41666666666</v>
       </c>
       <c r="D28">
-        <v>22.033722196925</v>
+        <v>10.30002672184468</v>
       </c>
       <c r="E28">
-        <v>3615.96</v>
+        <v>1676.26</v>
       </c>
       <c r="F28">
         <v>554</v>
@@ -967,10 +967,10 @@
         <v>43467.45833333334</v>
       </c>
       <c r="D29">
-        <v>19.04549022645561</v>
+        <v>9.531633637839478</v>
       </c>
       <c r="E29">
-        <v>3241.47</v>
+        <v>1471.06</v>
       </c>
       <c r="F29">
         <v>486</v>
@@ -987,10 +987,10 @@
         <v>43467.5</v>
       </c>
       <c r="D30">
-        <v>13.74790884434181</v>
+        <v>8.01456839559374</v>
       </c>
       <c r="E30">
-        <v>2050.54</v>
+        <v>904.25</v>
       </c>
       <c r="F30">
         <v>301</v>
@@ -1007,10 +1007,10 @@
         <v>43467.54166666666</v>
       </c>
       <c r="D31">
-        <v>4.538319265054807</v>
+        <v>4.633343468183878</v>
       </c>
       <c r="E31">
-        <v>372.67</v>
+        <v>157.51</v>
       </c>
       <c r="F31">
         <v>55</v>
@@ -1367,7 +1367,7 @@
         <v>43468.29166666666</v>
       </c>
       <c r="D49">
-        <v>11.33498766252672</v>
+        <v>9.430961374207342</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>43468.33333333334</v>
       </c>
       <c r="D50">
-        <v>24.29390366494487</v>
+        <v>15.02601070244358</v>
       </c>
       <c r="E50">
-        <v>3260.14</v>
+        <v>1476.02</v>
       </c>
       <c r="F50">
         <v>498</v>
@@ -1407,10 +1407,10 @@
         <v>43468.375</v>
       </c>
       <c r="D51">
-        <v>27.22324737990578</v>
+        <v>16.74570312588229</v>
       </c>
       <c r="E51">
-        <v>3320.37</v>
+        <v>1524.22</v>
       </c>
       <c r="F51">
         <v>517</v>
@@ -1427,10 +1427,10 @@
         <v>43468.41666666666</v>
       </c>
       <c r="D52">
-        <v>28.19162160955551</v>
+        <v>17.324632762832</v>
       </c>
       <c r="E52">
-        <v>3565.9</v>
+        <v>1639.4</v>
       </c>
       <c r="F52">
         <v>556</v>
@@ -1447,10 +1447,10 @@
         <v>43468.45833333334</v>
       </c>
       <c r="D53">
-        <v>24.3716114028385</v>
+        <v>15.79501914489954</v>
       </c>
       <c r="E53">
-        <v>3218.2</v>
+        <v>1447.37</v>
       </c>
       <c r="F53">
         <v>490</v>
@@ -1464,10 +1464,10 @@
         <v>1742</v>
       </c>
       <c r="D54">
-        <v>403.2267852352812</v>
+        <v>270.408767297436</v>
       </c>
       <c r="E54">
-        <v>45636.31</v>
+        <v>20667.75</v>
       </c>
       <c r="F54">
         <v>6870</v>

--- a/ResultsWithCoolingEffect.xlsx
+++ b/ResultsWithCoolingEffect.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
         <v>40909.04166666666</v>
       </c>
       <c r="D2">
-        <v>25.45994538130253</v>
+        <v>29.79197453384628</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -447,7 +447,7 @@
         <v>40909.08333333334</v>
       </c>
       <c r="D3">
-        <v>25.45994538130253</v>
+        <v>29.79197453384628</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -467,7 +467,7 @@
         <v>40909.125</v>
       </c>
       <c r="D4">
-        <v>25.45994538130253</v>
+        <v>29.79197453384628</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>40909.16666666666</v>
       </c>
       <c r="D5">
-        <v>25.45994538130253</v>
+        <v>29.79197453384628</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>40909.20833333334</v>
       </c>
       <c r="D6">
-        <v>25.45994538130253</v>
+        <v>29.79197453384628</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>40909.25</v>
       </c>
       <c r="D7">
-        <v>25.45994538130253</v>
+        <v>39.42877862620711</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>40909.29166666666</v>
       </c>
       <c r="D8">
-        <v>25.45994538130253</v>
+        <v>78.18270590161845</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -557,20 +557,360 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40909.33333333334</v>
+      </c>
+      <c r="D9">
+        <v>73.54881935472451</v>
+      </c>
+      <c r="E9">
+        <v>4329.44</v>
+      </c>
+      <c r="F9">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40909.375</v>
+      </c>
+      <c r="D10">
+        <v>51.52120306308981</v>
+      </c>
+      <c r="E10">
+        <v>2638.26</v>
+      </c>
+      <c r="F10">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40909.41666666666</v>
+      </c>
+      <c r="D11">
+        <v>49.40291693720034</v>
+      </c>
+      <c r="E11">
+        <v>2454.86</v>
+      </c>
+      <c r="F11">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40909.45833333334</v>
+      </c>
+      <c r="D12">
+        <v>49.04175484765851</v>
+      </c>
+      <c r="E12">
+        <v>2424.81</v>
+      </c>
+      <c r="F12">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>40909.5</v>
+      </c>
+      <c r="D13">
+        <v>49.02312938691136</v>
+      </c>
+      <c r="E13">
+        <v>2423.39</v>
+      </c>
+      <c r="F13">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40909.54166666666</v>
+      </c>
+      <c r="D14">
+        <v>49.27582351382436</v>
+      </c>
+      <c r="E14">
+        <v>2444.01</v>
+      </c>
+      <c r="F14">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>40909.58333333334</v>
+      </c>
+      <c r="D15">
+        <v>50.79513435107455</v>
+      </c>
+      <c r="E15">
+        <v>2575.33</v>
+      </c>
+      <c r="F15">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>40909.625</v>
+      </c>
+      <c r="D16">
+        <v>62.89564618939732</v>
+      </c>
+      <c r="E16">
+        <v>3570.22</v>
+      </c>
+      <c r="F16">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>40909.66666666666</v>
+      </c>
+      <c r="D17">
+        <v>84.9321882484913</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>40909.70833333334</v>
+      </c>
+      <c r="D18">
+        <v>46.66514359728401</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>40909.75</v>
+      </c>
+      <c r="D19">
+        <v>29.79197453384628</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>40909.79166666666</v>
+      </c>
+      <c r="D20">
+        <v>29.79197453384628</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40909.83333333334</v>
+      </c>
+      <c r="D21">
+        <v>29.79197453384628</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <v>40909.875</v>
+      </c>
+      <c r="D22">
+        <v>29.79197453384628</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2">
+        <v>40909.91666666666</v>
+      </c>
+      <c r="D23">
+        <v>29.79197453384628</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>40909.95833333334</v>
+      </c>
+      <c r="D24">
+        <v>29.79197453384628</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <v>40910</v>
+      </c>
+      <c r="D25">
+        <v>29.79201846449806</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>178.2196176691177</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="B26">
+        <v>300</v>
+      </c>
+      <c r="D26">
+        <v>1042.216982354289</v>
+      </c>
+      <c r="E26">
+        <v>22860.32</v>
+      </c>
+      <c r="F26">
+        <v>11953</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsWithCoolingEffect.xlsx
+++ b/ResultsWithCoolingEffect.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>40909.04166666666</v>
+        <v>40909</v>
       </c>
       <c r="D2">
-        <v>29.79197453384628</v>
+        <v>44.79197453384629</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>40909.08333333334</v>
+        <v>40909.04166666666</v>
       </c>
       <c r="D3">
-        <v>29.79197453384628</v>
+        <v>44.79197453384629</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -461,13 +461,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>40909.125</v>
+        <v>40909.08333333334</v>
       </c>
       <c r="D4">
-        <v>29.79197453384628</v>
+        <v>44.79197453384629</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -481,13 +481,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>40909.16666666666</v>
+        <v>40909.125</v>
       </c>
       <c r="D5">
-        <v>29.79197453384628</v>
+        <v>44.79197453384629</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>40909.20833333334</v>
+        <v>40909.16666666666</v>
       </c>
       <c r="D6">
-        <v>29.79197453384628</v>
+        <v>44.79197453384629</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -521,13 +521,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>40909.25</v>
+        <v>40909.20833333334</v>
       </c>
       <c r="D7">
-        <v>39.42877862620711</v>
+        <v>44.79197453384629</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -541,13 +541,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>40909.29166666666</v>
+        <v>40909.25</v>
       </c>
       <c r="D8">
-        <v>78.18270590161845</v>
+        <v>54.42877862620711</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -561,19 +561,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>40909.33333333334</v>
+        <v>40909.29166666666</v>
       </c>
       <c r="D9">
-        <v>73.54881935472451</v>
+        <v>93.18270590161845</v>
       </c>
       <c r="E9">
-        <v>4329.44</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -581,19 +581,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>40909.375</v>
+        <v>40909.33333333334</v>
       </c>
       <c r="D10">
-        <v>51.52120306308981</v>
+        <v>88.80845960219982</v>
       </c>
       <c r="E10">
-        <v>2638.26</v>
+        <v>4027.51</v>
       </c>
       <c r="F10">
-        <v>1347</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -601,19 +601,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>40909.41666666666</v>
+        <v>40909.375</v>
       </c>
       <c r="D11">
-        <v>49.40291693720034</v>
+        <v>66.66540985721575</v>
       </c>
       <c r="E11">
-        <v>2454.86</v>
+        <v>2470.01</v>
       </c>
       <c r="F11">
-        <v>1243</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -621,296 +621,36 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>40909.45833333334</v>
+        <v>40909.41666666666</v>
       </c>
       <c r="D12">
-        <v>49.04175484765851</v>
+        <v>64.5361706515057</v>
       </c>
       <c r="E12">
-        <v>2424.81</v>
+        <v>2299.29</v>
       </c>
       <c r="F12">
-        <v>1226</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>40909.5</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>49.02312938691136</v>
+        <v>636.3733718418246</v>
       </c>
       <c r="E13">
-        <v>2423.39</v>
+        <v>8796.810000000001</v>
       </c>
       <c r="F13">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>40909.54166666666</v>
-      </c>
-      <c r="D14">
-        <v>49.27582351382436</v>
-      </c>
-      <c r="E14">
-        <v>2444.01</v>
-      </c>
-      <c r="F14">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>40909.58333333334</v>
-      </c>
-      <c r="D15">
-        <v>50.79513435107455</v>
-      </c>
-      <c r="E15">
-        <v>2575.33</v>
-      </c>
-      <c r="F15">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2">
-        <v>40909.625</v>
-      </c>
-      <c r="D16">
-        <v>62.89564618939732</v>
-      </c>
-      <c r="E16">
-        <v>3570.22</v>
-      </c>
-      <c r="F16">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2">
-        <v>40909.66666666666</v>
-      </c>
-      <c r="D17">
-        <v>84.9321882484913</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
-        <v>40909.70833333334</v>
-      </c>
-      <c r="D18">
-        <v>46.66514359728401</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2">
-        <v>40909.75</v>
-      </c>
-      <c r="D19">
-        <v>29.79197453384628</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2">
-        <v>40909.79166666666</v>
-      </c>
-      <c r="D20">
-        <v>29.79197453384628</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2">
-        <v>40909.83333333334</v>
-      </c>
-      <c r="D21">
-        <v>29.79197453384628</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2">
-        <v>40909.875</v>
-      </c>
-      <c r="D22">
-        <v>29.79197453384628</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2">
-        <v>40909.91666666666</v>
-      </c>
-      <c r="D23">
-        <v>29.79197453384628</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2">
-        <v>40909.95833333334</v>
-      </c>
-      <c r="D24">
-        <v>29.79197453384628</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2">
-        <v>40910</v>
-      </c>
-      <c r="D25">
-        <v>29.79201846449806</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>300</v>
-      </c>
-      <c r="D26">
-        <v>1042.216982354289</v>
-      </c>
-      <c r="E26">
-        <v>22860.32</v>
-      </c>
-      <c r="F26">
-        <v>11953</v>
+        <v>5039</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsWithCoolingEffect.xlsx
+++ b/ResultsWithCoolingEffect.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
-        <v>43466.33333333334</v>
+        <v>40909.5</v>
       </c>
       <c r="D2">
-        <v>5.636921717476291</v>
+        <v>13.72558083742203</v>
       </c>
       <c r="E2">
-        <v>1151.63</v>
+        <v>226.8</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -441,19 +441,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>43466.375</v>
+        <v>40909.54166666666</v>
       </c>
       <c r="D3">
-        <v>6.677035082057596</v>
+        <v>12.61863697766738</v>
       </c>
       <c r="E3">
-        <v>1182.79</v>
+        <v>34.99</v>
       </c>
       <c r="F3">
-        <v>515</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -461,19 +461,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>43466.41666666666</v>
+        <v>40909.58333333334</v>
       </c>
       <c r="D4">
-        <v>7.457433220456478</v>
+        <v>12.93543072583785</v>
       </c>
       <c r="E4">
-        <v>1265.7</v>
+        <v>86.02</v>
       </c>
       <c r="F4">
-        <v>552</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -481,19 +481,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>43466.45833333334</v>
+        <v>40909.625</v>
       </c>
       <c r="D5">
-        <v>7.296496080766046</v>
+        <v>12.39</v>
       </c>
       <c r="E5">
-        <v>1104.72</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -501,19 +501,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>43466.5</v>
+        <v>40909.66666666666</v>
       </c>
       <c r="D6">
-        <v>5.987212391917188</v>
+        <v>12.31</v>
       </c>
       <c r="E6">
-        <v>673.14</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -521,19 +521,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>43466.54166666666</v>
+        <v>40909.70833333334</v>
       </c>
       <c r="D7">
-        <v>3.701161045875506</v>
+        <v>12.23</v>
       </c>
       <c r="E7">
-        <v>111.03</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -541,13 +541,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>43466.58333333334</v>
+        <v>40909.75</v>
       </c>
       <c r="D8">
-        <v>3.2</v>
+        <v>12.15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -561,13 +561,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>43466.625</v>
+        <v>40909.79166666666</v>
       </c>
       <c r="D9">
-        <v>3.2</v>
+        <v>12.19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -581,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>43466.66666666666</v>
+        <v>40909.83333333334</v>
       </c>
       <c r="D10">
-        <v>2.3</v>
+        <v>12.23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -601,13 +601,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>43466.70833333334</v>
+        <v>40909.875</v>
       </c>
       <c r="D11">
-        <v>2.1</v>
+        <v>12.27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -621,13 +621,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>43466.75</v>
+        <v>40909.91666666666</v>
       </c>
       <c r="D12">
-        <v>1.7</v>
+        <v>12.18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -641,13 +641,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>43466.79166666666</v>
+        <v>40909.95833333334</v>
       </c>
       <c r="D13">
-        <v>1.9</v>
+        <v>12.1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>43466.83333333334</v>
+        <v>40910</v>
       </c>
       <c r="D14">
-        <v>1.7</v>
+        <v>12.02</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>43466.875</v>
+        <v>40910.04166666666</v>
       </c>
       <c r="D15">
-        <v>1.3</v>
+        <v>11.78</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>43466.91666666666</v>
+        <v>40910.08333333334</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>11.54</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
-        <v>43466.95833333334</v>
+        <v>40910.125</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>11.29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>43467</v>
+        <v>40910.16666666666</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
-        <v>43467.04166666666</v>
+        <v>40910.20833333334</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -781,13 +781,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>43467.08333333334</v>
+        <v>40910.25</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10.48</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -801,13 +801,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2">
-        <v>43467.125</v>
+        <v>40910.29166666666</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2">
-        <v>43467.16666666666</v>
+        <v>40910.33333333334</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>10.1358476357792</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>26.64</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -841,19 +841,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2">
-        <v>43467.20833333334</v>
+        <v>40910.375</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>10.24973506497533</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>82.09</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -861,19 +861,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
-        <v>43467.25</v>
+        <v>40910.41666666666</v>
       </c>
       <c r="D24">
-        <v>0.1776527662555668</v>
+        <v>10.70023765652628</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>165.12</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -881,19 +881,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
-        <v>43467.29166666666</v>
+        <v>40910.45833333334</v>
       </c>
       <c r="D25">
-        <v>2.81861931991214</v>
+        <v>10.41902940767092</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>135.37</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -901,19 +901,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2">
-        <v>43467.33333333334</v>
+        <v>40910.5</v>
       </c>
       <c r="D26">
-        <v>7.142912188594313</v>
+        <v>10.77889621997497</v>
       </c>
       <c r="E26">
-        <v>1142.92</v>
+        <v>215.56</v>
       </c>
       <c r="F26">
-        <v>499</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -921,19 +921,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2">
-        <v>43467.375</v>
+        <v>40910.54166666666</v>
       </c>
       <c r="D27">
-        <v>8.150628686405755</v>
+        <v>9.947458642468339</v>
       </c>
       <c r="E27">
-        <v>1178.36</v>
+        <v>177.35</v>
       </c>
       <c r="F27">
-        <v>516</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -941,19 +941,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
-        <v>43467.41666666666</v>
+        <v>40910.58333333334</v>
       </c>
       <c r="D28">
-        <v>9.07593851013919</v>
+        <v>8.87464270560511</v>
       </c>
       <c r="E28">
-        <v>1262.89</v>
+        <v>98.45</v>
       </c>
       <c r="F28">
-        <v>554</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -961,19 +961,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
-        <v>43467.45833333334</v>
+        <v>40910.625</v>
       </c>
       <c r="D29">
-        <v>8.425800443969859</v>
+        <v>7.652862971142505</v>
       </c>
       <c r="E29">
-        <v>1107.8</v>
+        <v>0.8</v>
       </c>
       <c r="F29">
-        <v>486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -981,19 +981,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
-        <v>43467.5</v>
+        <v>40910.66666666666</v>
       </c>
       <c r="D30">
-        <v>7.227072391894363</v>
+        <v>7.08</v>
       </c>
       <c r="E30">
-        <v>680.17</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1001,19 +1001,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
-        <v>43467.54166666666</v>
+        <v>40910.70833333334</v>
       </c>
       <c r="D31">
-        <v>4.268975908734438</v>
+        <v>6.53</v>
       </c>
       <c r="E31">
-        <v>118.31</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1021,13 +1021,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2">
-        <v>43467.58333333334</v>
+        <v>40910.75</v>
       </c>
       <c r="D32">
-        <v>3.8</v>
+        <v>5.98</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2">
-        <v>43467.625</v>
+        <v>40910.79166666666</v>
       </c>
       <c r="D33">
-        <v>3.9</v>
+        <v>5.67</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2">
-        <v>43467.66666666666</v>
+        <v>40910.83333333334</v>
       </c>
       <c r="D34">
-        <v>3.6</v>
+        <v>5.37</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1081,13 +1081,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2">
-        <v>43467.70833333334</v>
+        <v>40910.875</v>
       </c>
       <c r="D35">
-        <v>3.4</v>
+        <v>5.07</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2">
-        <v>43467.75</v>
+        <v>40910.91666666666</v>
       </c>
       <c r="D36">
-        <v>3.4</v>
+        <v>5.06</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1121,13 +1121,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2">
-        <v>43467.79166666666</v>
+        <v>40910.95833333334</v>
       </c>
       <c r="D37">
-        <v>3.6</v>
+        <v>5.05</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1137,80 +1137,20 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>44</v>
-      </c>
-      <c r="C38" s="2">
-        <v>43467.83333333334</v>
+        <v>1062</v>
       </c>
       <c r="D38">
-        <v>2.9</v>
+        <v>362.9783588450699</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1249.19</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2">
-        <v>43467.875</v>
-      </c>
-      <c r="D39">
-        <v>4.4</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>46</v>
-      </c>
-      <c r="C40" s="2">
-        <v>43467.91666666666</v>
-      </c>
-      <c r="D40">
-        <v>4.2</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41">
-        <v>1053</v>
-      </c>
-      <c r="D41">
-        <v>135.6438597544547</v>
-      </c>
-      <c r="E41">
-        <v>10979.46</v>
-      </c>
-      <c r="F41">
-        <v>4809</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsWithCoolingEffect.xlsx
+++ b/ResultsWithCoolingEffect.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>40909.5</v>
+        <v>40909</v>
       </c>
       <c r="D2">
-        <v>13.72558083742203</v>
+        <v>10.78</v>
       </c>
       <c r="E2">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -441,19 +441,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>40909.54166666666</v>
+        <v>40909.04166666666</v>
       </c>
       <c r="D3">
-        <v>12.61863697766738</v>
+        <v>10.73</v>
       </c>
       <c r="E3">
-        <v>34.99</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -461,19 +461,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>40909.58333333334</v>
+        <v>40909.08333333334</v>
       </c>
       <c r="D4">
-        <v>12.93543072583785</v>
+        <v>10.68</v>
       </c>
       <c r="E4">
-        <v>86.02</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -481,13 +481,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>40909.625</v>
+        <v>40909.125</v>
       </c>
       <c r="D5">
-        <v>12.39</v>
+        <v>10.63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>40909.66666666666</v>
+        <v>40909.16666666666</v>
       </c>
       <c r="D6">
-        <v>12.31</v>
+        <v>10.7</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -521,13 +521,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>40909.70833333334</v>
+        <v>40909.20833333334</v>
       </c>
       <c r="D7">
-        <v>12.23</v>
+        <v>10.76</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -541,13 +541,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>40909.75</v>
+        <v>40909.25</v>
       </c>
       <c r="D8">
-        <v>12.15</v>
+        <v>10.83</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -561,13 +561,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>40909.79166666666</v>
+        <v>40909.29166666666</v>
       </c>
       <c r="D9">
-        <v>12.19</v>
+        <v>11.09</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -581,19 +581,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>40909.83333333334</v>
+        <v>40909.33333333334</v>
       </c>
       <c r="D10">
-        <v>12.23</v>
+        <v>11.57376789836891</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -601,19 +601,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>40909.875</v>
+        <v>40909.375</v>
       </c>
       <c r="D11">
-        <v>12.27</v>
+        <v>12.46868042562078</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>141.12</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -621,19 +621,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>40909.91666666666</v>
+        <v>40909.41666666666</v>
       </c>
       <c r="D12">
-        <v>12.18</v>
+        <v>12.88847646805065</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>167.36</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -641,19 +641,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>40909.95833333334</v>
+        <v>40909.45833333334</v>
       </c>
       <c r="D13">
-        <v>12.1</v>
+        <v>13.32541834923198</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>195.47</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -661,19 +661,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>40910</v>
+        <v>40909.5</v>
       </c>
       <c r="D14">
-        <v>12.02</v>
+        <v>13.79954562319092</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>226.73</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -681,19 +681,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>40910.04166666666</v>
+        <v>40909.54166666666</v>
       </c>
       <c r="D15">
-        <v>11.78</v>
+        <v>12.62014905435792</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>34.99</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -701,19 +701,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>40910.08333333334</v>
+        <v>40909.58333333334</v>
       </c>
       <c r="D16">
-        <v>11.54</v>
+        <v>12.95729102298555</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -721,13 +721,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>40910.125</v>
+        <v>40909.625</v>
       </c>
       <c r="D17">
-        <v>11.29</v>
+        <v>12.39</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>40910.16666666666</v>
+        <v>40909.66666666666</v>
       </c>
       <c r="D18">
-        <v>11.02</v>
+        <v>12.31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>40910.20833333334</v>
+        <v>40909.70833333334</v>
       </c>
       <c r="D19">
-        <v>10.75</v>
+        <v>12.23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -781,13 +781,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>40910.25</v>
+        <v>40909.75</v>
       </c>
       <c r="D20">
-        <v>10.48</v>
+        <v>12.15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -801,13 +801,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>40910.29166666666</v>
+        <v>40909.79166666666</v>
       </c>
       <c r="D21">
-        <v>10.2</v>
+        <v>12.19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
-        <v>40910.33333333334</v>
+        <v>40909.83333333334</v>
       </c>
       <c r="D22">
-        <v>10.1358476357792</v>
+        <v>12.23</v>
       </c>
       <c r="E22">
-        <v>26.64</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -841,19 +841,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
-        <v>40910.375</v>
+        <v>40909.875</v>
       </c>
       <c r="D23">
-        <v>10.24973506497533</v>
+        <v>12.27</v>
       </c>
       <c r="E23">
-        <v>82.09</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -861,19 +861,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>40910.41666666666</v>
+        <v>40909.91666666666</v>
       </c>
       <c r="D24">
-        <v>10.70023765652628</v>
+        <v>12.18</v>
       </c>
       <c r="E24">
-        <v>165.12</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -881,276 +881,36 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>40910.45833333334</v>
+        <v>40909.95833333334</v>
       </c>
       <c r="D25">
-        <v>10.41902940767092</v>
+        <v>12.1</v>
       </c>
       <c r="E25">
-        <v>135.37</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>36</v>
-      </c>
-      <c r="C26" s="2">
-        <v>40910.5</v>
+        <v>276</v>
       </c>
       <c r="D26">
-        <v>10.77889621997497</v>
+        <v>285.8833288418067</v>
       </c>
       <c r="E26">
-        <v>215.56</v>
+        <v>884.8800000000001</v>
       </c>
       <c r="F26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>37</v>
-      </c>
-      <c r="C27" s="2">
-        <v>40910.54166666666</v>
-      </c>
-      <c r="D27">
-        <v>9.947458642468339</v>
-      </c>
-      <c r="E27">
-        <v>177.35</v>
-      </c>
-      <c r="F27">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>38</v>
-      </c>
-      <c r="C28" s="2">
-        <v>40910.58333333334</v>
-      </c>
-      <c r="D28">
-        <v>8.87464270560511</v>
-      </c>
-      <c r="E28">
-        <v>98.45</v>
-      </c>
-      <c r="F28">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>39</v>
-      </c>
-      <c r="C29" s="2">
-        <v>40910.625</v>
-      </c>
-      <c r="D29">
-        <v>7.652862971142505</v>
-      </c>
-      <c r="E29">
-        <v>0.8</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>40</v>
-      </c>
-      <c r="C30" s="2">
-        <v>40910.66666666666</v>
-      </c>
-      <c r="D30">
-        <v>7.08</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>41</v>
-      </c>
-      <c r="C31" s="2">
-        <v>40910.70833333334</v>
-      </c>
-      <c r="D31">
-        <v>6.53</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>42</v>
-      </c>
-      <c r="C32" s="2">
-        <v>40910.75</v>
-      </c>
-      <c r="D32">
-        <v>5.98</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>43</v>
-      </c>
-      <c r="C33" s="2">
-        <v>40910.79166666666</v>
-      </c>
-      <c r="D33">
-        <v>5.67</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>44</v>
-      </c>
-      <c r="C34" s="2">
-        <v>40910.83333333334</v>
-      </c>
-      <c r="D34">
-        <v>5.37</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2">
-        <v>40910.875</v>
-      </c>
-      <c r="D35">
-        <v>5.07</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>46</v>
-      </c>
-      <c r="C36" s="2">
-        <v>40910.91666666666</v>
-      </c>
-      <c r="D36">
-        <v>5.06</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>47</v>
-      </c>
-      <c r="C37" s="2">
-        <v>40910.95833333334</v>
-      </c>
-      <c r="D37">
-        <v>5.05</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38">
-        <v>1062</v>
-      </c>
-      <c r="D38">
-        <v>362.9783588450699</v>
-      </c>
-      <c r="E38">
-        <v>1249.19</v>
-      </c>
-      <c r="F38">
-        <v>589</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsWithCoolingEffect.xlsx
+++ b/ResultsWithCoolingEffect.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C2" s="2">
-        <v>40909</v>
+        <v>41033.99930555555</v>
       </c>
       <c r="D2">
-        <v>10.78</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="C3" s="2">
-        <v>40909.04166666666</v>
+        <v>41034.04097222222</v>
       </c>
       <c r="D3">
-        <v>10.73</v>
+        <v>10.4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -461,13 +461,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3002</v>
       </c>
       <c r="C4" s="2">
-        <v>40909.08333333334</v>
+        <v>41034.08263888889</v>
       </c>
       <c r="D4">
-        <v>10.68</v>
+        <v>10.79</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -481,13 +481,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>3003</v>
       </c>
       <c r="C5" s="2">
-        <v>40909.125</v>
+        <v>41034.12430555555</v>
       </c>
       <c r="D5">
-        <v>10.63</v>
+        <v>11.19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3004</v>
       </c>
       <c r="C6" s="2">
-        <v>40909.16666666666</v>
+        <v>41034.16597222222</v>
       </c>
       <c r="D6">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -521,19 +521,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3005</v>
       </c>
       <c r="C7" s="2">
-        <v>40909.20833333334</v>
+        <v>41034.20763888889</v>
       </c>
       <c r="D7">
-        <v>10.76</v>
+        <v>11.58059026994956</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>51.05</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -541,19 +541,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3006</v>
       </c>
       <c r="C8" s="2">
-        <v>40909.25</v>
+        <v>41034.24930555555</v>
       </c>
       <c r="D8">
-        <v>10.83</v>
+        <v>11.65895382501627</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>65.33</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -561,19 +561,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>3007</v>
       </c>
       <c r="C9" s="2">
-        <v>40909.29166666666</v>
+        <v>41034.29097222222</v>
       </c>
       <c r="D9">
-        <v>11.09</v>
+        <v>12.24214860073785</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>84.97</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -581,19 +581,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>3008</v>
       </c>
       <c r="C10" s="2">
-        <v>40909.33333333334</v>
+        <v>41034.33263888889</v>
       </c>
       <c r="D10">
-        <v>11.57376789836891</v>
+        <v>13.23369010494482</v>
       </c>
       <c r="E10">
-        <v>33.2</v>
+        <v>159.49</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -601,19 +601,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>3009</v>
       </c>
       <c r="C11" s="2">
-        <v>40909.375</v>
+        <v>41034.37430555555</v>
       </c>
       <c r="D11">
-        <v>12.46868042562078</v>
+        <v>14.21268864622789</v>
       </c>
       <c r="E11">
-        <v>141.12</v>
+        <v>231.05</v>
       </c>
       <c r="F11">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -621,19 +621,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>3010</v>
       </c>
       <c r="C12" s="2">
-        <v>40909.41666666666</v>
+        <v>41034.41597222222</v>
       </c>
       <c r="D12">
-        <v>12.88847646805065</v>
+        <v>14.28578445614846</v>
       </c>
       <c r="E12">
-        <v>167.36</v>
+        <v>208.66</v>
       </c>
       <c r="F12">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -641,19 +641,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>3011</v>
       </c>
       <c r="C13" s="2">
-        <v>40909.45833333334</v>
+        <v>41034.45763888889</v>
       </c>
       <c r="D13">
-        <v>13.32541834923198</v>
+        <v>14.90754490947188</v>
       </c>
       <c r="E13">
-        <v>195.47</v>
+        <v>262.03</v>
       </c>
       <c r="F13">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -661,19 +661,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>3012</v>
       </c>
       <c r="C14" s="2">
-        <v>40909.5</v>
+        <v>41034.49930555555</v>
       </c>
       <c r="D14">
-        <v>13.79954562319092</v>
+        <v>15.07697175550144</v>
       </c>
       <c r="E14">
-        <v>226.73</v>
+        <v>248.8</v>
       </c>
       <c r="F14">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -681,19 +681,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>3013</v>
       </c>
       <c r="C15" s="2">
-        <v>40909.54166666666</v>
+        <v>41034.54097222222</v>
       </c>
       <c r="D15">
-        <v>12.62014905435792</v>
+        <v>15.30908132526297</v>
       </c>
       <c r="E15">
-        <v>34.99</v>
+        <v>353.37</v>
       </c>
       <c r="F15">
-        <v>17</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -701,19 +701,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>3014</v>
       </c>
       <c r="C16" s="2">
-        <v>40909.58333333334</v>
+        <v>41034.58263888889</v>
       </c>
       <c r="D16">
-        <v>12.95729102298555</v>
+        <v>13.81953809563905</v>
       </c>
       <c r="E16">
-        <v>86.01000000000001</v>
+        <v>186.8</v>
       </c>
       <c r="F16">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -721,19 +721,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>3015</v>
       </c>
       <c r="C17" s="2">
-        <v>40909.625</v>
+        <v>41034.62430555555</v>
       </c>
       <c r="D17">
-        <v>12.39</v>
+        <v>12.7421239904151</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>82.97</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -741,19 +741,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>3016</v>
       </c>
       <c r="C18" s="2">
-        <v>40909.66666666666</v>
+        <v>41034.66597222222</v>
       </c>
       <c r="D18">
-        <v>12.31</v>
+        <v>12.04269011459623</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>63.42</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -761,19 +761,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>3017</v>
       </c>
       <c r="C19" s="2">
-        <v>40909.70833333334</v>
+        <v>41034.70763888889</v>
       </c>
       <c r="D19">
-        <v>12.23</v>
+        <v>11.31424708216819</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>40.48</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -781,19 +781,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>3018</v>
       </c>
       <c r="C20" s="2">
-        <v>40909.75</v>
+        <v>41034.74930555555</v>
       </c>
       <c r="D20">
-        <v>12.15</v>
+        <v>10.54090549159607</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>11.19</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -801,13 +801,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>3019</v>
       </c>
       <c r="C21" s="2">
-        <v>40909.79166666666</v>
+        <v>41034.79097222222</v>
       </c>
       <c r="D21">
-        <v>12.19</v>
+        <v>10.09</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>3020</v>
       </c>
       <c r="C22" s="2">
-        <v>40909.83333333334</v>
+        <v>41034.83263888889</v>
       </c>
       <c r="D22">
-        <v>12.23</v>
+        <v>9.74</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -841,13 +841,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>3021</v>
       </c>
       <c r="C23" s="2">
-        <v>40909.875</v>
+        <v>41034.87430555555</v>
       </c>
       <c r="D23">
-        <v>12.27</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>3022</v>
       </c>
       <c r="C24" s="2">
-        <v>40909.91666666666</v>
+        <v>41034.91597222222</v>
       </c>
       <c r="D24">
-        <v>12.18</v>
+        <v>9.19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -881,13 +881,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>3023</v>
       </c>
       <c r="C25" s="2">
-        <v>40909.95833333334</v>
+        <v>41034.95763888889</v>
       </c>
       <c r="D25">
-        <v>12.1</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -897,20 +897,1940 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3024</v>
+      </c>
+      <c r="C26" s="2">
+        <v>41034.99930555555</v>
+      </c>
+      <c r="D26">
+        <v>8.81</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3025</v>
+      </c>
+      <c r="C27" s="2">
+        <v>41035.04097222222</v>
+      </c>
+      <c r="D27">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3026</v>
+      </c>
+      <c r="C28" s="2">
+        <v>41035.08263888889</v>
+      </c>
+      <c r="D28">
+        <v>9.09</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3027</v>
+      </c>
+      <c r="C29" s="2">
+        <v>41035.12430555555</v>
+      </c>
+      <c r="D29">
+        <v>9.23</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3028</v>
+      </c>
+      <c r="C30" s="2">
+        <v>41035.16597222222</v>
+      </c>
+      <c r="D30">
+        <v>9.27</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>3029</v>
+      </c>
+      <c r="C31" s="2">
+        <v>41035.20763888889</v>
+      </c>
+      <c r="D31">
+        <v>10.17830410023261</v>
+      </c>
+      <c r="E31">
+        <v>116.51</v>
+      </c>
+      <c r="F31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3030</v>
+      </c>
+      <c r="C32" s="2">
+        <v>41035.24930555555</v>
+      </c>
+      <c r="D32">
+        <v>9.889796717832983</v>
+      </c>
+      <c r="E32">
+        <v>71.3</v>
+      </c>
+      <c r="F32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>3031</v>
+      </c>
+      <c r="C33" s="2">
+        <v>41035.29097222222</v>
+      </c>
+      <c r="D33">
+        <v>10.71331804655394</v>
+      </c>
+      <c r="E33">
+        <v>89.2</v>
+      </c>
+      <c r="F33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>3032</v>
+      </c>
+      <c r="C34" s="2">
+        <v>41035.33263888889</v>
+      </c>
+      <c r="D34">
+        <v>12.89275124610155</v>
+      </c>
+      <c r="E34">
+        <v>303.85</v>
+      </c>
+      <c r="F34">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>3033</v>
+      </c>
+      <c r="C35" s="2">
+        <v>41035.37430555555</v>
+      </c>
+      <c r="D35">
+        <v>15.12993687423174</v>
+      </c>
+      <c r="E35">
+        <v>524.03</v>
+      </c>
+      <c r="F35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3034</v>
+      </c>
+      <c r="C36" s="2">
+        <v>41035.41597222222</v>
+      </c>
+      <c r="D36">
+        <v>13.55326895579096</v>
+      </c>
+      <c r="E36">
+        <v>226.09</v>
+      </c>
+      <c r="F36">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3035</v>
+      </c>
+      <c r="C37" s="2">
+        <v>41035.45763888889</v>
+      </c>
+      <c r="D37">
+        <v>16.41567729001748</v>
+      </c>
+      <c r="E37">
+        <v>537.48</v>
+      </c>
+      <c r="F37">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>3036</v>
+      </c>
+      <c r="C38" s="2">
+        <v>41035.49930555555</v>
+      </c>
+      <c r="D38">
+        <v>15.59143693771011</v>
+      </c>
+      <c r="E38">
+        <v>354.84</v>
+      </c>
+      <c r="F38">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>3037</v>
+      </c>
+      <c r="C39" s="2">
+        <v>41035.54097222222</v>
+      </c>
+      <c r="D39">
+        <v>14.36579813402957</v>
+      </c>
+      <c r="E39">
+        <v>268.24</v>
+      </c>
+      <c r="F39">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3038</v>
+      </c>
+      <c r="C40" s="2">
+        <v>41035.58263888889</v>
+      </c>
+      <c r="D40">
+        <v>13.89491087455429</v>
+      </c>
+      <c r="E40">
+        <v>272.52</v>
+      </c>
+      <c r="F40">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>3039</v>
+      </c>
+      <c r="C41" s="2">
+        <v>41035.62430555555</v>
+      </c>
+      <c r="D41">
+        <v>12.48855276335129</v>
+      </c>
+      <c r="E41">
+        <v>112.15</v>
+      </c>
+      <c r="F41">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>3040</v>
+      </c>
+      <c r="C42" s="2">
+        <v>41035.66597222222</v>
+      </c>
+      <c r="D42">
+        <v>12.13125732059771</v>
+      </c>
+      <c r="E42">
+        <v>114.16</v>
+      </c>
+      <c r="F42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3041</v>
+      </c>
+      <c r="C43" s="2">
+        <v>41035.70763888889</v>
+      </c>
+      <c r="D43">
+        <v>11.52014962871117</v>
+      </c>
+      <c r="E43">
+        <v>74.38</v>
+      </c>
+      <c r="F43">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>3042</v>
+      </c>
+      <c r="C44" s="2">
+        <v>41035.74930555555</v>
+      </c>
+      <c r="D44">
+        <v>10.92513025945978</v>
+      </c>
+      <c r="E44">
+        <v>38.79</v>
+      </c>
+      <c r="F44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>3043</v>
+      </c>
+      <c r="C45" s="2">
+        <v>41035.79097222222</v>
+      </c>
+      <c r="D45">
+        <v>10.19</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>3044</v>
+      </c>
+      <c r="C46" s="2">
+        <v>41035.83263888889</v>
+      </c>
+      <c r="D46">
+        <v>9.74</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>3045</v>
+      </c>
+      <c r="C47" s="2">
+        <v>41035.87430555555</v>
+      </c>
+      <c r="D47">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>3046</v>
+      </c>
+      <c r="C48" s="2">
+        <v>41035.91597222222</v>
+      </c>
+      <c r="D48">
+        <v>9.09</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3047</v>
+      </c>
+      <c r="C49" s="2">
+        <v>41035.95763888889</v>
+      </c>
+      <c r="D49">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3048</v>
+      </c>
+      <c r="C50" s="2">
+        <v>41035.99930555555</v>
+      </c>
+      <c r="D50">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>3049</v>
+      </c>
+      <c r="C51" s="2">
+        <v>41036.04097222222</v>
+      </c>
+      <c r="D51">
+        <v>8.4</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>3050</v>
+      </c>
+      <c r="C52" s="2">
+        <v>41036.08263888889</v>
+      </c>
+      <c r="D52">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3051</v>
+      </c>
+      <c r="C53" s="2">
+        <v>41036.12430555555</v>
+      </c>
+      <c r="D53">
+        <v>7.81</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3052</v>
+      </c>
+      <c r="C54" s="2">
+        <v>41036.16597222222</v>
+      </c>
+      <c r="D54">
+        <v>7.97</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>3053</v>
+      </c>
+      <c r="C55" s="2">
+        <v>41036.20763888889</v>
+      </c>
+      <c r="D55">
+        <v>8.329016835551656</v>
+      </c>
+      <c r="E55">
+        <v>18.16</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>3054</v>
+      </c>
+      <c r="C56" s="2">
+        <v>41036.24930555555</v>
+      </c>
+      <c r="D56">
+        <v>9.047904624515047</v>
+      </c>
+      <c r="E56">
+        <v>80.7</v>
+      </c>
+      <c r="F56">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>3055</v>
+      </c>
+      <c r="C57" s="2">
+        <v>41036.29097222222</v>
+      </c>
+      <c r="D57">
+        <v>10.40257913868077</v>
+      </c>
+      <c r="E57">
+        <v>133.52</v>
+      </c>
+      <c r="F57">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>3056</v>
+      </c>
+      <c r="C58" s="2">
+        <v>41036.33263888889</v>
+      </c>
+      <c r="D58">
+        <v>11.78726182468484</v>
+      </c>
+      <c r="E58">
+        <v>190.29</v>
+      </c>
+      <c r="F58">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>3057</v>
+      </c>
+      <c r="C59" s="2">
+        <v>41036.37430555555</v>
+      </c>
+      <c r="D59">
+        <v>13.0806350515331</v>
+      </c>
+      <c r="E59">
+        <v>237.77</v>
+      </c>
+      <c r="F59">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>3058</v>
+      </c>
+      <c r="C60" s="2">
+        <v>41036.41597222222</v>
+      </c>
+      <c r="D60">
+        <v>15.77659524949982</v>
+      </c>
+      <c r="E60">
+        <v>429.93</v>
+      </c>
+      <c r="F60">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>3059</v>
+      </c>
+      <c r="C61" s="2">
+        <v>41036.45763888889</v>
+      </c>
+      <c r="D61">
+        <v>20.21763638569244</v>
+      </c>
+      <c r="E61">
+        <v>779.46</v>
+      </c>
+      <c r="F61">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3060</v>
+      </c>
+      <c r="C62" s="2">
+        <v>41036.49930555555</v>
+      </c>
+      <c r="D62">
+        <v>23.11820413388063</v>
+      </c>
+      <c r="E62">
+        <v>925.6799999999999</v>
+      </c>
+      <c r="F62">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3061</v>
+      </c>
+      <c r="C63" s="2">
+        <v>41036.54097222222</v>
+      </c>
+      <c r="D63">
+        <v>25.32349119114366</v>
+      </c>
+      <c r="E63">
+        <v>1119.32</v>
+      </c>
+      <c r="F63">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3062</v>
+      </c>
+      <c r="C64" s="2">
+        <v>41036.58263888889</v>
+      </c>
+      <c r="D64">
+        <v>25.72615964378242</v>
+      </c>
+      <c r="E64">
+        <v>1140.13</v>
+      </c>
+      <c r="F64">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3063</v>
+      </c>
+      <c r="C65" s="2">
+        <v>41036.62430555555</v>
+      </c>
+      <c r="D65">
+        <v>21.76158032151558</v>
+      </c>
+      <c r="E65">
+        <v>723.77</v>
+      </c>
+      <c r="F65">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>3064</v>
+      </c>
+      <c r="C66" s="2">
+        <v>41036.66597222222</v>
+      </c>
+      <c r="D66">
+        <v>18.34797423929581</v>
+      </c>
+      <c r="E66">
+        <v>438.11</v>
+      </c>
+      <c r="F66">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>3065</v>
+      </c>
+      <c r="C67" s="2">
+        <v>41036.70763888889</v>
+      </c>
+      <c r="D67">
+        <v>15.61918853953073</v>
+      </c>
+      <c r="E67">
+        <v>191.13</v>
+      </c>
+      <c r="F67">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>3066</v>
+      </c>
+      <c r="C68" s="2">
+        <v>41036.74930555555</v>
+      </c>
+      <c r="D68">
+        <v>14.04351083225239</v>
+      </c>
+      <c r="E68">
+        <v>66.08</v>
+      </c>
+      <c r="F68">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>3067</v>
+      </c>
+      <c r="C69" s="2">
+        <v>41036.79097222222</v>
+      </c>
+      <c r="D69">
+        <v>11.94</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>3068</v>
+      </c>
+      <c r="C70" s="2">
+        <v>41036.83263888889</v>
+      </c>
+      <c r="D70">
+        <v>10.5</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>3069</v>
+      </c>
+      <c r="C71" s="2">
+        <v>41036.87430555555</v>
+      </c>
+      <c r="D71">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>3070</v>
+      </c>
+      <c r="C72" s="2">
+        <v>41036.91597222222</v>
+      </c>
+      <c r="D72">
+        <v>8.84</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>3071</v>
+      </c>
+      <c r="C73" s="2">
+        <v>41036.95763888889</v>
+      </c>
+      <c r="D73">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>3072</v>
+      </c>
+      <c r="C74" s="2">
+        <v>41036.99930555555</v>
+      </c>
+      <c r="D74">
+        <v>8.4</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>3073</v>
+      </c>
+      <c r="C75" s="2">
+        <v>41037.04097222222</v>
+      </c>
+      <c r="D75">
+        <v>8.67</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>3074</v>
+      </c>
+      <c r="C76" s="2">
+        <v>41037.08263888889</v>
+      </c>
+      <c r="D76">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>3075</v>
+      </c>
+      <c r="C77" s="2">
+        <v>41037.12430555555</v>
+      </c>
+      <c r="D77">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>3076</v>
+      </c>
+      <c r="C78" s="2">
+        <v>41037.16597222222</v>
+      </c>
+      <c r="D78">
+        <v>10.22</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>3077</v>
+      </c>
+      <c r="C79" s="2">
+        <v>41037.20763888889</v>
+      </c>
+      <c r="D79">
+        <v>11.86831709260803</v>
+      </c>
+      <c r="E79">
+        <v>95.16</v>
+      </c>
+      <c r="F79">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>3078</v>
+      </c>
+      <c r="C80" s="2">
+        <v>41037.24930555555</v>
+      </c>
+      <c r="D80">
+        <v>13.72793811642431</v>
+      </c>
+      <c r="E80">
+        <v>230.66</v>
+      </c>
+      <c r="F80">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>3079</v>
+      </c>
+      <c r="C81" s="2">
+        <v>41037.29097222222</v>
+      </c>
+      <c r="D81">
+        <v>17.04987439434568</v>
+      </c>
+      <c r="E81">
+        <v>513.1799999999999</v>
+      </c>
+      <c r="F81">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>3080</v>
+      </c>
+      <c r="C82" s="2">
+        <v>41037.33263888889</v>
+      </c>
+      <c r="D82">
+        <v>20.82460546534669</v>
+      </c>
+      <c r="E82">
+        <v>898.99</v>
+      </c>
+      <c r="F82">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>3081</v>
+      </c>
+      <c r="C83" s="2">
+        <v>41037.37430555555</v>
+      </c>
+      <c r="D83">
+        <v>24.10670672124453</v>
+      </c>
+      <c r="E83">
+        <v>1202.42</v>
+      </c>
+      <c r="F83">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>3082</v>
+      </c>
+      <c r="C84" s="2">
+        <v>41037.41597222222</v>
+      </c>
+      <c r="D84">
+        <v>23.90581158135483</v>
+      </c>
+      <c r="E84">
+        <v>1059.86</v>
+      </c>
+      <c r="F84">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>3083</v>
+      </c>
+      <c r="C85" s="2">
+        <v>41037.45763888889</v>
+      </c>
+      <c r="D85">
+        <v>27.57861550889223</v>
+      </c>
+      <c r="E85">
+        <v>1631.06</v>
+      </c>
+      <c r="F85">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>3084</v>
+      </c>
+      <c r="C86" s="2">
+        <v>41037.49930555555</v>
+      </c>
+      <c r="D86">
+        <v>27.16271508307949</v>
+      </c>
+      <c r="E86">
+        <v>1446.6</v>
+      </c>
+      <c r="F86">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>3085</v>
+      </c>
+      <c r="C87" s="2">
+        <v>41037.54097222222</v>
+      </c>
+      <c r="D87">
+        <v>25.62323694233064</v>
+      </c>
+      <c r="E87">
+        <v>1186.75</v>
+      </c>
+      <c r="F87">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>3086</v>
+      </c>
+      <c r="C88" s="2">
+        <v>41037.58263888889</v>
+      </c>
+      <c r="D88">
+        <v>22.48455503879633</v>
+      </c>
+      <c r="E88">
+        <v>636.73</v>
+      </c>
+      <c r="F88">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>3087</v>
+      </c>
+      <c r="C89" s="2">
+        <v>41037.62430555555</v>
+      </c>
+      <c r="D89">
+        <v>20.41218166515037</v>
+      </c>
+      <c r="E89">
+        <v>272.44</v>
+      </c>
+      <c r="F89">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>3088</v>
+      </c>
+      <c r="C90" s="2">
+        <v>41037.66597222222</v>
+      </c>
+      <c r="D90">
+        <v>19.59475351030849</v>
+      </c>
+      <c r="E90">
+        <v>312.52</v>
+      </c>
+      <c r="F90">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>3089</v>
+      </c>
+      <c r="C91" s="2">
+        <v>41037.70763888889</v>
+      </c>
+      <c r="D91">
+        <v>17.7632599706258</v>
+      </c>
+      <c r="E91">
+        <v>182.17</v>
+      </c>
+      <c r="F91">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>3090</v>
+      </c>
+      <c r="C92" s="2">
+        <v>41037.74930555555</v>
+      </c>
+      <c r="D92">
+        <v>15.57788620524981</v>
+      </c>
+      <c r="E92">
+        <v>10.89</v>
+      </c>
+      <c r="F92">
         <v>5</v>
       </c>
-      <c r="B26">
-        <v>276</v>
-      </c>
-      <c r="D26">
-        <v>285.8833288418067</v>
-      </c>
-      <c r="E26">
-        <v>884.8800000000001</v>
-      </c>
-      <c r="F26">
-        <v>420</v>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>3091</v>
+      </c>
+      <c r="C93" s="2">
+        <v>41037.79097222222</v>
+      </c>
+      <c r="D93">
+        <v>15.04</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>3092</v>
+      </c>
+      <c r="C94" s="2">
+        <v>41037.83263888889</v>
+      </c>
+      <c r="D94">
+        <v>14.61</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>3093</v>
+      </c>
+      <c r="C95" s="2">
+        <v>41037.87430555555</v>
+      </c>
+      <c r="D95">
+        <v>14.17</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>3094</v>
+      </c>
+      <c r="C96" s="2">
+        <v>41037.91597222222</v>
+      </c>
+      <c r="D96">
+        <v>14.03</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>3095</v>
+      </c>
+      <c r="C97" s="2">
+        <v>41037.95763888889</v>
+      </c>
+      <c r="D97">
+        <v>13.89</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>3096</v>
+      </c>
+      <c r="C98" s="2">
+        <v>41037.99930555555</v>
+      </c>
+      <c r="D98">
+        <v>13.75</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>3097</v>
+      </c>
+      <c r="C99" s="2">
+        <v>41038.04097222222</v>
+      </c>
+      <c r="D99">
+        <v>13.8</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>3098</v>
+      </c>
+      <c r="C100" s="2">
+        <v>41038.08263888889</v>
+      </c>
+      <c r="D100">
+        <v>13.86</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>3099</v>
+      </c>
+      <c r="C101" s="2">
+        <v>41038.12430555555</v>
+      </c>
+      <c r="D101">
+        <v>13.91</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>3100</v>
+      </c>
+      <c r="C102" s="2">
+        <v>41038.16597222222</v>
+      </c>
+      <c r="D102">
+        <v>14.23</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>3101</v>
+      </c>
+      <c r="C103" s="2">
+        <v>41038.20763888889</v>
+      </c>
+      <c r="D103">
+        <v>14.78429489524728</v>
+      </c>
+      <c r="E103">
+        <v>29.46</v>
+      </c>
+      <c r="F103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>3102</v>
+      </c>
+      <c r="C104" s="2">
+        <v>41038.24930555555</v>
+      </c>
+      <c r="D104">
+        <v>15.90657681872839</v>
+      </c>
+      <c r="E104">
+        <v>157.64</v>
+      </c>
+      <c r="F104">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>3103</v>
+      </c>
+      <c r="C105" s="2">
+        <v>41038.29097222222</v>
+      </c>
+      <c r="D105">
+        <v>17.17744060552984</v>
+      </c>
+      <c r="E105">
+        <v>312.34</v>
+      </c>
+      <c r="F105">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>3104</v>
+      </c>
+      <c r="C106" s="2">
+        <v>41038.33263888889</v>
+      </c>
+      <c r="D106">
+        <v>18.83648920777867</v>
+      </c>
+      <c r="E106">
+        <v>544.3</v>
+      </c>
+      <c r="F106">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>3105</v>
+      </c>
+      <c r="C107" s="2">
+        <v>41038.37430555555</v>
+      </c>
+      <c r="D107">
+        <v>18.19337278688729</v>
+      </c>
+      <c r="E107">
+        <v>375.29</v>
+      </c>
+      <c r="F107">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>3106</v>
+      </c>
+      <c r="C108" s="2">
+        <v>41038.41597222222</v>
+      </c>
+      <c r="D108">
+        <v>19.91113520356042</v>
+      </c>
+      <c r="E108">
+        <v>603.1900000000001</v>
+      </c>
+      <c r="F108">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>3107</v>
+      </c>
+      <c r="C109" s="2">
+        <v>41038.45763888889</v>
+      </c>
+      <c r="D109">
+        <v>19.89921476798578</v>
+      </c>
+      <c r="E109">
+        <v>526.21</v>
+      </c>
+      <c r="F109">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>3108</v>
+      </c>
+      <c r="C110" s="2">
+        <v>41038.49930555555</v>
+      </c>
+      <c r="D110">
+        <v>18.68498222388457</v>
+      </c>
+      <c r="E110">
+        <v>241.36</v>
+      </c>
+      <c r="F110">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>3109</v>
+      </c>
+      <c r="C111" s="2">
+        <v>41038.54097222222</v>
+      </c>
+      <c r="D111">
+        <v>21.10121237265079</v>
+      </c>
+      <c r="E111">
+        <v>643.75</v>
+      </c>
+      <c r="F111">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>3110</v>
+      </c>
+      <c r="C112" s="2">
+        <v>41038.58263888889</v>
+      </c>
+      <c r="D112">
+        <v>19.69274813065179</v>
+      </c>
+      <c r="E112">
+        <v>374.81</v>
+      </c>
+      <c r="F112">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>3111</v>
+      </c>
+      <c r="C113" s="2">
+        <v>41038.62430555555</v>
+      </c>
+      <c r="D113">
+        <v>20.66294844747023</v>
+      </c>
+      <c r="E113">
+        <v>527.73</v>
+      </c>
+      <c r="F113">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>3112</v>
+      </c>
+      <c r="C114" s="2">
+        <v>41038.66597222222</v>
+      </c>
+      <c r="D114">
+        <v>19.45638425793688</v>
+      </c>
+      <c r="E114">
+        <v>336.46</v>
+      </c>
+      <c r="F114">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>3113</v>
+      </c>
+      <c r="C115" s="2">
+        <v>41038.70763888889</v>
+      </c>
+      <c r="D115">
+        <v>17.71981553666246</v>
+      </c>
+      <c r="E115">
+        <v>88.18000000000001</v>
+      </c>
+      <c r="F115">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>3114</v>
+      </c>
+      <c r="C116" s="2">
+        <v>41038.74930555555</v>
+      </c>
+      <c r="D116">
+        <v>17.35990838423645</v>
+      </c>
+      <c r="E116">
+        <v>68.81999999999999</v>
+      </c>
+      <c r="F116">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>3115</v>
+      </c>
+      <c r="C117" s="2">
+        <v>41038.79097222222</v>
+      </c>
+      <c r="D117">
+        <v>16.08</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>3116</v>
+      </c>
+      <c r="C118" s="2">
+        <v>41038.83263888889</v>
+      </c>
+      <c r="D118">
+        <v>15.35</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>3117</v>
+      </c>
+      <c r="C119" s="2">
+        <v>41038.87430555555</v>
+      </c>
+      <c r="D119">
+        <v>14.61</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>3118</v>
+      </c>
+      <c r="C120" s="2">
+        <v>41038.91597222222</v>
+      </c>
+      <c r="D120">
+        <v>14.51</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>3119</v>
+      </c>
+      <c r="C121" s="2">
+        <v>41038.95763888889</v>
+      </c>
+      <c r="D121">
+        <v>14.4</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>367140</v>
+      </c>
+      <c r="D122">
+        <v>1687.435966763378</v>
+      </c>
+      <c r="E122">
+        <v>26136.17</v>
+      </c>
+      <c r="F122">
+        <v>12240</v>
       </c>
     </row>
   </sheetData>
